--- a/trunk/ITERACION 5/ENTREGABLE FINAL/PLAN DE PRUEBAS/CASOS DE PRUEBA CC/CP_CC_CUS13_AGREGAR CLIENTE.xlsx
+++ b/trunk/ITERACION 5/ENTREGABLE FINAL/PLAN DE PRUEBAS/CASOS DE PRUEBA CC/CP_CC_CUS13_AGREGAR CLIENTE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -72,20 +72,50 @@
     <t>Tipo Cliente</t>
   </si>
   <si>
-    <t>Anexo</t>
-  </si>
-  <si>
-    <t>Estado Cliente</t>
-  </si>
-  <si>
-    <t>Se grabó Cliente satisfactoriamente</t>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>INEI</t>
+  </si>
+  <si>
+    <t>INEF</t>
+  </si>
+  <si>
+    <t>Muestra el mensaje "Cliente no registrado"</t>
+  </si>
+  <si>
+    <t>Muestra un listado con todos los posibles clientes</t>
+  </si>
+  <si>
+    <t>Muestra en el listado al posible cliente "INEI"</t>
+  </si>
+  <si>
+    <t>Público</t>
+  </si>
+  <si>
+    <t>Speed SAC</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>Muestra el mensaje "Cliente agregado correctamente"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,48 +184,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,29 +217,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -254,6 +232,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -578,6 +561,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -612,6 +596,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -802,7 +787,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -816,7 +801,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -837,24 +822,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -873,109 +858,170 @@
       <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -983,23 +1029,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1021,28 +1066,25 @@
       <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.25" customHeight="1">
+    <row r="2" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>12</v>
@@ -1050,92 +1092,168 @@
       <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1">
+      <c r="H2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="54.75" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="53.25" customHeight="1">
+      <c r="C4" s="12"/>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7">
+        <v>20435678671</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20435678672</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7">
+        <v>20435678672</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7">
+        <v>20253478563</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7">
+        <v>8453625</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
